--- a/lang-demo/doc/随记.xlsx
+++ b/lang-demo/doc/随记.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\1-my\m-demo_main\lang-demo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC43B41-61E7-40CC-B119-5459D467BDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB51303-01C8-4DFA-ACDB-C3C71C541AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="参照对比" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>C++</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,7 +71,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对比</t>
+    <t>静态/动态类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用/指针支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局/成员函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局函数+成员函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针+引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（指针+引用）的值传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用的值传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪全局函数+成员函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,15 +152,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -135,26 +201,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,104 +580,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="3"/>
-    <col min="3" max="9" width="22.6640625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="11.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="25.08203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lang-demo/doc/随记.xlsx
+++ b/lang-demo/doc/随记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\1-my\m-demo_main\lang-demo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB51303-01C8-4DFA-ACDB-C3C71C541AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C989BF-9A72-4757-B5C3-8EA82E8CAAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>C++</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,71 +55,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局/成员函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局函数+成员函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用的值传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪全局函数+成员函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型推断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针+引用+定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态/动态类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用/指针支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局/成员函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局函数+成员函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传递方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指针+引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（指针+引用）的值传递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用的值传递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伪全局函数+成员函数</t>
+    <t>指针+定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（指针+引用+定义）的值传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（指针+定义）的值传递</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,28 +284,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,51 +591,52 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="25.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="1" customWidth="1"/>
+    <col min="4" max="9" width="25.08203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
+      <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -639,103 +648,103 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
-        <v>19</v>
+      <c r="A4" s="10"/>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9"/>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -745,10 +754,10 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9"/>
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>

--- a/lang-demo/doc/随记.xlsx
+++ b/lang-demo/doc/随记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\1-my\m-demo_main\lang-demo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C989BF-9A72-4757-B5C3-8EA82E8CAAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B6C04A-226B-4A49-9C9B-6DDBFD774848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全局/成员函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全局函数+成员函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +124,10 @@
   </si>
   <si>
     <t>（指针+定义）的值传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +591,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -630,13 +630,13 @@
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -648,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -660,34 +660,34 @@
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -716,28 +716,28 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">

--- a/lang-demo/doc/随记.xlsx
+++ b/lang-demo/doc/随记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\1-my\m-demo_main\lang-demo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B6C04A-226B-4A49-9C9B-6DDBFD774848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A446644A-C0BF-4A0A-A96A-BF98F0C9C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>C++</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,27 +107,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指针+引用+定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指针+定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（指针+引用+定义）的值传递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（指针+定义）的值传递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用范围</t>
+    <t>同名函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载+重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针+引用+构造类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针+构造类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（指针+引用+构造类型）的值传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（指针+构造类型）的值传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float/double/long double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short/int/long/long long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short/int/long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float/double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8/int16/int32/int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float32/float64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int/short/long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rune</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +263,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,19 +296,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,36 +415,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,188 +769,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="25.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.9140625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="25.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.08203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lang-demo/doc/随记.xlsx
+++ b/lang-demo/doc/随记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\1-my\m-demo_main\lang-demo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A446644A-C0BF-4A0A-A96A-BF98F0C9C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E3CD03-CBD7-4ECE-A7DF-7575DD70E0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t>C++</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>传递方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>引用的值传递</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,14 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变量传递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型推断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同名函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重载+重写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,14 +115,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>函数引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>作用域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>引用函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +224,26 @@
   </si>
   <si>
     <t>rune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数指针+函数对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +298,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000010"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000010"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -308,6 +337,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -315,12 +350,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,19 +464,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,31 +491,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,6 +524,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000010"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -772,7 +806,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -780,8 +814,8 @@
     <col min="1" max="1" width="11.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.4140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.9140625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="25.08203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="8" width="25.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.08203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -793,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -813,318 +847,332 @@
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="D6" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="15" t="s">
+      <c r="C11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="F12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18" t="s">
+      <c r="D13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>22</v>
+      <c r="I13" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
@@ -1132,26 +1180,26 @@
         <v>8</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/lang-demo/doc/随记.xlsx
+++ b/lang-demo/doc/随记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\1-my\m-demo_main\lang-demo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E3CD03-CBD7-4ECE-A7DF-7575DD70E0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1242F6-4119-4188-8E85-6FE39B6028CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,19 +337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFA9CBE9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FF88B6E0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor rgb="FF6CA6DA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,21 +464,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,6 +476,39 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,24 +516,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,6 +526,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6CA6DA"/>
+      <color rgb="FF7CAFDE"/>
+      <color rgb="FF88B6E0"/>
+      <color rgb="FFBBCFDF"/>
+      <color rgb="FFA9CBE9"/>
+      <color rgb="FFABCEEB"/>
+      <color rgb="FF8FB0CB"/>
       <color rgb="FF000010"/>
     </mruColors>
   </colors>
@@ -806,7 +813,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -821,8 +828,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -852,25 +859,25 @@
       <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -879,25 +886,25 @@
       <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -906,25 +913,25 @@
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -933,25 +940,25 @@
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -960,25 +967,25 @@
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -987,219 +994,219 @@
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/lang-demo/doc/随记.xlsx
+++ b/lang-demo/doc/随记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\1-my\m-demo_main\lang-demo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1242F6-4119-4188-8E85-6FE39B6028CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B1F092-07EE-45F3-B686-16AD9E214802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
   <si>
     <t>C++</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,7 +243,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同名处理</t>
+    <t>构造类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包（文件夹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +397,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5497D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -444,30 +494,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,15 +511,48 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,28 +562,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,6 +588,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF5497D4"/>
       <color rgb="FF6CA6DA"/>
       <color rgb="FF7CAFDE"/>
       <color rgb="FF88B6E0"/>
@@ -810,10 +873,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -828,8 +894,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -853,367 +919,451 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="17" t="s">
+    <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lang-demo/doc/随记.xlsx
+++ b/lang-demo/doc/随记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\1-my\m-demo_main\lang-demo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B1F092-07EE-45F3-B686-16AD9E214802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED0C146-2DF7-4A84-B245-A0E926F7B890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{023C1BE9-51D1-480A-8050-CDA805385C55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不考虑基本类型</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>C++</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,14 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>namespace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +314,59 @@
   </si>
   <si>
     <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i8/i16/i32/i64/i128
+u8/u16/u32/u64/u128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f32/f64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针+引用+构造类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +438,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -535,6 +627,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,19 +663,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,54 +964,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.4140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.9140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="8" width="25.08203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.08203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="9" width="25.08203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.08203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
+    <row r="1" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -928,8 +1024,8 @@
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
+      <c r="D2" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>40</v>
@@ -944,19 +1040,22 @@
         <v>40</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>34</v>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>34</v>
@@ -973,20 +1072,23 @@
       <c r="I3" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="J3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>37</v>
@@ -995,22 +1097,25 @@
         <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>38</v>
@@ -1022,22 +1127,25 @@
         <v>38</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>35</v>
@@ -1049,24 +1157,27 @@
         <v>35</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1075,15 +1186,18 @@
       <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1093,7 +1207,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
@@ -1105,14 +1219,17 @@
         <v>12</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +1237,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
@@ -1132,14 +1249,17 @@
         <v>16</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
@@ -1162,11 +1282,14 @@
         <v>10</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1176,26 +1299,29 @@
         <v>13</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="J11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
       <c r="B12" s="8" t="s">
         <v>56</v>
       </c>
@@ -1203,7 +1329,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>20</v>
@@ -1215,14 +1341,17 @@
         <v>20</v>
       </c>
       <c r="H12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
       <c r="B13" s="8" t="s">
         <v>53</v>
       </c>
@@ -1230,10 +1359,10 @@
         <v>51</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>50</v>
@@ -1242,13 +1371,16 @@
         <v>50</v>
       </c>
       <c r="H13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>54</v>
       </c>
@@ -1260,102 +1392,113 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="D17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="G17" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1367,5 +1510,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>